--- a/data/trans_orig/POLIPATOLOGIA_Lim_5-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA_Lim_5-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>45101</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>33345</v>
+        <v>33845</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>60719</v>
+        <v>62973</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04320285085915461</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03194130719343383</v>
+        <v>0.03242096466023737</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05816359084101307</v>
+        <v>0.06032301998683059</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>136</v>
@@ -764,19 +764,19 @@
         <v>147198</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>125560</v>
+        <v>125148</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>172304</v>
+        <v>170047</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1314349345851686</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1121142372497382</v>
+        <v>0.1117467383822846</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.153852766389937</v>
+        <v>0.1518377929643273</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>177</v>
@@ -785,19 +785,19 @@
         <v>192299</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>167958</v>
+        <v>165827</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>222667</v>
+        <v>223231</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08886822130139833</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07761940098601668</v>
+        <v>0.07663467436259561</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1029024579468689</v>
+        <v>0.103163107220536</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>998834</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>983216</v>
+        <v>980962</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1010590</v>
+        <v>1010090</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9567971491408453</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9418364091589864</v>
+        <v>0.9396769800131695</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9680586928065661</v>
+        <v>0.9675790353397626</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>895</v>
@@ -835,19 +835,19 @@
         <v>972730</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>947624</v>
+        <v>949881</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>994368</v>
+        <v>994780</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8685650654148314</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8461472336100629</v>
+        <v>0.8481622070356726</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8878857627502618</v>
+        <v>0.8882532616177153</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1832</v>
@@ -856,19 +856,19 @@
         <v>1971564</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1941196</v>
+        <v>1940632</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1995905</v>
+        <v>1998036</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9111317786986016</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8970975420531312</v>
+        <v>0.8968368927794641</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9223805990139833</v>
+        <v>0.9233653256374046</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>31137</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20306</v>
+        <v>20608</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44079</v>
+        <v>45142</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03186779767535852</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02078222904725227</v>
+        <v>0.02109124933174988</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04511312211500396</v>
+        <v>0.04620113922427601</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>86</v>
@@ -981,19 +981,19 @@
         <v>92269</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>74049</v>
+        <v>75257</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>113324</v>
+        <v>113928</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08432062455739021</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06767060056744477</v>
+        <v>0.06877424424045706</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1035617531573943</v>
+        <v>0.1041137630420385</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>114</v>
@@ -1002,19 +1002,19 @@
         <v>123406</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>103286</v>
+        <v>102072</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>146609</v>
+        <v>148336</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05957801600364641</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04986451206476557</v>
+        <v>0.0492783087083179</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07078016687557888</v>
+        <v>0.0716136492057287</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>945936</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>932994</v>
+        <v>931931</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>956767</v>
+        <v>956465</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9681322023246415</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9548868778849957</v>
+        <v>0.953798860775724</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9792177709527476</v>
+        <v>0.9789087506682501</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>934</v>
@@ -1052,19 +1052,19 @@
         <v>1001993</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>980938</v>
+        <v>980334</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1020213</v>
+        <v>1019005</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9156793754426098</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8964382468426059</v>
+        <v>0.8958862369579614</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9323293994325552</v>
+        <v>0.9312257557595428</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1830</v>
@@ -1073,19 +1073,19 @@
         <v>1947929</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1924726</v>
+        <v>1922999</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1968049</v>
+        <v>1969263</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9404219839963536</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9292198331244211</v>
+        <v>0.928386350794272</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9501354879352344</v>
+        <v>0.9507216912916822</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>32272</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22890</v>
+        <v>23028</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45287</v>
+        <v>44396</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03646049180594692</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02586071526777228</v>
+        <v>0.02601691557878409</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05116479905463011</v>
+        <v>0.05015849176976363</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>54</v>
@@ -1198,19 +1198,19 @@
         <v>60439</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46159</v>
+        <v>46383</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>76529</v>
+        <v>77757</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06901068115331027</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05270533722400635</v>
+        <v>0.05296147783482226</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08738253866309983</v>
+        <v>0.08878489911812945</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>85</v>
@@ -1219,19 +1219,19 @@
         <v>92711</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>75523</v>
+        <v>74408</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>113428</v>
+        <v>113612</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05264945326566529</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04288854302103344</v>
+        <v>0.04225557996439287</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06441428275648466</v>
+        <v>0.0645188682742121</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>852843</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>839828</v>
+        <v>840719</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>862225</v>
+        <v>862087</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9635395081940531</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9488352009453701</v>
+        <v>0.9498415082302363</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9741392847322278</v>
+        <v>0.9739830844212159</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>767</v>
@@ -1269,19 +1269,19 @@
         <v>815357</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>799267</v>
+        <v>798039</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>829637</v>
+        <v>829413</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9309893188466897</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9126174613369001</v>
+        <v>0.9112151008818711</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9472946627759935</v>
+        <v>0.9470385221651778</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1566</v>
@@ -1290,19 +1290,19 @@
         <v>1668200</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1647483</v>
+        <v>1647299</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1685388</v>
+        <v>1686503</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9473505467343347</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9355857172435154</v>
+        <v>0.9354811317257881</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9571114569789666</v>
+        <v>0.9577444200356072</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>13797</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7345</v>
+        <v>7322</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24166</v>
+        <v>24337</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0274276175808925</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01460076529311511</v>
+        <v>0.0145554937136446</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04804085249736228</v>
+        <v>0.0483810626290756</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>23</v>
@@ -1415,19 +1415,19 @@
         <v>26019</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15890</v>
+        <v>16859</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>38290</v>
+        <v>39448</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05746996410541243</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03509719995531742</v>
+        <v>0.03723809960296213</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08457561375155552</v>
+        <v>0.08713342218717506</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>35</v>
@@ -1436,19 +1436,19 @@
         <v>39815</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29086</v>
+        <v>28292</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>55367</v>
+        <v>54101</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04165845404585777</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03043243420522004</v>
+        <v>0.02960173967373483</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05792996662229755</v>
+        <v>0.05660507310956717</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>489226</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>478857</v>
+        <v>478686</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>495678</v>
+        <v>495701</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9725723824191075</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9519591475026379</v>
+        <v>0.9516189373709242</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.985399234706885</v>
+        <v>0.9854445062863554</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>389</v>
@@ -1486,19 +1486,19 @@
         <v>426717</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>414446</v>
+        <v>413288</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>436846</v>
+        <v>435877</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9425300358945876</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.915424386248445</v>
+        <v>0.912866577812825</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.964902800044683</v>
+        <v>0.962761900397038</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>838</v>
@@ -1507,19 +1507,19 @@
         <v>915943</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>900391</v>
+        <v>901657</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>926672</v>
+        <v>927466</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9583415459541422</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9420700333777025</v>
+        <v>0.9433949268904328</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9695675657947799</v>
+        <v>0.9703982603262652</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>122307</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>101714</v>
+        <v>100483</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>147748</v>
+        <v>147213</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03587601860793152</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02983577853798713</v>
+        <v>0.02947442479219111</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04333864516513215</v>
+        <v>0.04318175140635769</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>299</v>
@@ -1632,19 +1632,19 @@
         <v>325925</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>294046</v>
+        <v>289898</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>365769</v>
+        <v>364979</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09199834171196533</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08300006541022421</v>
+        <v>0.08182915121175889</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1032450648372672</v>
+        <v>0.1030222597137867</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>411</v>
@@ -1653,19 +1653,19 @@
         <v>448231</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>407511</v>
+        <v>407601</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>492825</v>
+        <v>493242</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06447636091569497</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05861887364440026</v>
+        <v>0.05863184104026548</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07089101525617295</v>
+        <v>0.07095096490536112</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>3286838</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3261397</v>
+        <v>3261932</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3307431</v>
+        <v>3308662</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9641239813920685</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9566613548348678</v>
+        <v>0.9568182485936416</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9701642214620129</v>
+        <v>0.9705255752078088</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2985</v>
@@ -1703,19 +1703,19 @@
         <v>3216797</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3176953</v>
+        <v>3177743</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3248676</v>
+        <v>3252824</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9080016582880347</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8967549351627327</v>
+        <v>0.8969777402862135</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9169999345897758</v>
+        <v>0.9181708487882414</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6066</v>
@@ -1724,19 +1724,19 @@
         <v>6503636</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6459042</v>
+        <v>6458625</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6544356</v>
+        <v>6544266</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.935523639084305</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9291089847438269</v>
+        <v>0.9290490350946388</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9413811263555997</v>
+        <v>0.9413681589597342</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>45961</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34530</v>
+        <v>32927</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>61306</v>
+        <v>60069</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04074542633962074</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03061147173693344</v>
+        <v>0.02919086325878126</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05434916533959452</v>
+        <v>0.05325261715907359</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>143</v>
@@ -2089,19 +2089,19 @@
         <v>163808</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>139227</v>
+        <v>138223</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>189359</v>
+        <v>189441</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1300513410632738</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1105364332379514</v>
+        <v>0.1097388075767182</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1503375083458595</v>
+        <v>0.1504023738301263</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>189</v>
@@ -2110,19 +2110,19 @@
         <v>209768</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>183280</v>
+        <v>182846</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>240919</v>
+        <v>240293</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08785893173055381</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07676479323844</v>
+        <v>0.07658279349157544</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1009061343642109</v>
+        <v>0.1006438433314717</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>1082036</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1066691</v>
+        <v>1067928</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1093467</v>
+        <v>1095070</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9592545736603793</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9456508346604054</v>
+        <v>0.9467473828409264</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9693885282630665</v>
+        <v>0.9708091367412187</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1045</v>
@@ -2160,19 +2160,19 @@
         <v>1095753</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1070202</v>
+        <v>1070120</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1120334</v>
+        <v>1121338</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8699486589367262</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8496624916541409</v>
+        <v>0.8495976261698737</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.889463566762049</v>
+        <v>0.8902611924232817</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2065</v>
@@ -2181,19 +2181,19 @@
         <v>2177790</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2146639</v>
+        <v>2147265</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2204278</v>
+        <v>2204712</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9121410682694462</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8990938656357883</v>
+        <v>0.8993561566685285</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9232352067615598</v>
+        <v>0.9234172065084246</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>25632</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16823</v>
+        <v>17259</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>36930</v>
+        <v>36975</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0282031728645286</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01851079553635643</v>
+        <v>0.01899092214721608</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04063491605795187</v>
+        <v>0.04068465877980888</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>69</v>
@@ -2306,19 +2306,19 @@
         <v>76142</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>58429</v>
+        <v>59596</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>93319</v>
+        <v>95524</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07565236258307148</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05805359792883329</v>
+        <v>0.05921221762994321</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09271891092535715</v>
+        <v>0.0949092558761075</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>95</v>
@@ -2327,19 +2327,19 @@
         <v>101774</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>83887</v>
+        <v>82531</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>121669</v>
+        <v>122066</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05313735310478142</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04379816419261453</v>
+        <v>0.04309024194624313</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06352487462822974</v>
+        <v>0.06373182472080079</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>883193</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>871895</v>
+        <v>871850</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>892002</v>
+        <v>891566</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9717968271354714</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9593650839420482</v>
+        <v>0.9593153412201914</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9814892044636436</v>
+        <v>0.9810090778527844</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>882</v>
@@ -2377,19 +2377,19 @@
         <v>930333</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>913156</v>
+        <v>910951</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>948046</v>
+        <v>946879</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9243476374169285</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9072810890746429</v>
+        <v>0.9050907441238926</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9419464020711678</v>
+        <v>0.940787782370057</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1737</v>
@@ -2398,19 +2398,19 @@
         <v>1813526</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1793631</v>
+        <v>1793234</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1831413</v>
+        <v>1832769</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9468626468952186</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9364751253717702</v>
+        <v>0.9362681752791993</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9562018358073855</v>
+        <v>0.9569097580537568</v>
       </c>
     </row>
     <row r="9">
@@ -2502,19 +2502,19 @@
         <v>23871</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15744</v>
+        <v>15893</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35091</v>
+        <v>33809</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02897837511297795</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01911206770723544</v>
+        <v>0.01929377915923668</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04259818958002434</v>
+        <v>0.04104261236061146</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -2523,19 +2523,19 @@
         <v>45504</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>32828</v>
+        <v>34065</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60576</v>
+        <v>61743</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05901459029315853</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04257545829495194</v>
+        <v>0.04417984930983747</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07856176686224037</v>
+        <v>0.08007529412793934</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>64</v>
@@ -2544,19 +2544,19 @@
         <v>69375</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>54864</v>
+        <v>53174</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>87963</v>
+        <v>87222</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04350021087954865</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0344013626774757</v>
+        <v>0.0333414897005635</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05515548040963602</v>
+        <v>0.0546909089352107</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>799888</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>788668</v>
+        <v>789950</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>808015</v>
+        <v>807866</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.971021624887022</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9574018104199756</v>
+        <v>0.9589573876393885</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9808879322927645</v>
+        <v>0.9807062208407633</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>689</v>
@@ -2594,19 +2594,19 @@
         <v>725555</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>710483</v>
+        <v>709316</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>738231</v>
+        <v>736994</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9409854097068414</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9214382331377597</v>
+        <v>0.9199247058720607</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9574245417050481</v>
+        <v>0.9558201506901626</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1451</v>
@@ -2615,19 +2615,19 @@
         <v>1525443</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1506855</v>
+        <v>1507596</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1539954</v>
+        <v>1541644</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9564997891204513</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9448445195903641</v>
+        <v>0.9453090910647893</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9655986373225244</v>
+        <v>0.9666585102994365</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>9491</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4503</v>
+        <v>4532</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18122</v>
+        <v>18097</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01873040747479049</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00888683258092202</v>
+        <v>0.008943790395755154</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03576446589966677</v>
+        <v>0.03571627845349516</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>23</v>
@@ -2740,19 +2740,19 @@
         <v>28496</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18586</v>
+        <v>18828</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>42194</v>
+        <v>41354</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05819009457139306</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03795463569453193</v>
+        <v>0.03844803177243667</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08616304898940305</v>
+        <v>0.08444819405359268</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>32</v>
@@ -2761,19 +2761,19 @@
         <v>37986</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>25888</v>
+        <v>26418</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>52691</v>
+        <v>52919</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03812356500915032</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02598127064449882</v>
+        <v>0.02651337141030052</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05288183344367283</v>
+        <v>0.05311079749947144</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>497210</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>488579</v>
+        <v>488604</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>502198</v>
+        <v>502169</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9812695925252095</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9642355341003332</v>
+        <v>0.9642837215465048</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9911131674190782</v>
+        <v>0.9910562096042449</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>432</v>
@@ -2811,19 +2811,19 @@
         <v>461202</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>447504</v>
+        <v>448344</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>471112</v>
+        <v>470870</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.941809905428607</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9138369510105965</v>
+        <v>0.9155518059464072</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9620453643054681</v>
+        <v>0.9615519682275632</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>894</v>
@@ -2832,19 +2832,19 @@
         <v>958412</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>943707</v>
+        <v>943479</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>970510</v>
+        <v>969980</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9618764349908496</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9471181665563272</v>
+        <v>0.9468892025005285</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9740187293555012</v>
+        <v>0.9734866285896995</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>104954</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>83499</v>
+        <v>85204</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>125504</v>
+        <v>126055</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03116887265855654</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02479720358427869</v>
+        <v>0.02530340982730378</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03727160886834197</v>
+        <v>0.03743534304300818</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>274</v>
@@ -2957,19 +2957,19 @@
         <v>313949</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>279114</v>
+        <v>279539</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>353149</v>
+        <v>352920</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08901830044925536</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07914097572730668</v>
+        <v>0.07926142690400449</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1001333488627565</v>
+        <v>0.1000682729010831</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>380</v>
@@ -2978,19 +2978,19 @@
         <v>418903</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>379064</v>
+        <v>375602</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>462954</v>
+        <v>461802</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06076282563363938</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0549840344215</v>
+        <v>0.05448188757873682</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06715243482129546</v>
+        <v>0.06698527785864258</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>3262328</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3241778</v>
+        <v>3241227</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3283783</v>
+        <v>3282078</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9688311273414435</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9627283911316581</v>
+        <v>0.9625646569569919</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9752027964157214</v>
+        <v>0.9746965901726964</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3048</v>
@@ -3028,19 +3028,19 @@
         <v>3212843</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3173643</v>
+        <v>3173872</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3247678</v>
+        <v>3247253</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9109816995507446</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8998666511372444</v>
+        <v>0.8999317270989169</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9208590242726935</v>
+        <v>0.9207385730959955</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6147</v>
@@ -3049,19 +3049,19 @@
         <v>6475172</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6431121</v>
+        <v>6432273</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6515011</v>
+        <v>6518473</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9392371743663607</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9328475651787044</v>
+        <v>0.9330147221413574</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9450159655784998</v>
+        <v>0.9455181124212632</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>72404</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>58948</v>
+        <v>57956</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>90060</v>
+        <v>89724</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1451740257301636</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1181949154577372</v>
+        <v>0.1162044465153021</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.180575293220172</v>
+        <v>0.1799023675757413</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>261</v>
@@ -3414,19 +3414,19 @@
         <v>158861</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>141009</v>
+        <v>141999</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>176565</v>
+        <v>175995</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2547563626489421</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2261283782239363</v>
+        <v>0.2277162097945147</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2831471764115697</v>
+        <v>0.2822336501330133</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>343</v>
@@ -3435,19 +3435,19 @@
         <v>231265</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>208115</v>
+        <v>207777</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>256992</v>
+        <v>256760</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2060598755167038</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1854332123622684</v>
+        <v>0.1851317268415293</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2289827524061749</v>
+        <v>0.2287762993762371</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>426335</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>408679</v>
+        <v>409015</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>439791</v>
+        <v>440783</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8548259742698365</v>
+        <v>0.8548259742698364</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.819424706779828</v>
+        <v>0.8200976324242587</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8818050845422628</v>
+        <v>0.8837955534846978</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>600</v>
@@ -3485,19 +3485,19 @@
         <v>464719</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>447015</v>
+        <v>447585</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>482571</v>
+        <v>481581</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7452436373510578</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7168528235884308</v>
+        <v>0.717766349866986</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7738716217760642</v>
+        <v>0.772283790205485</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>973</v>
@@ -3506,19 +3506,19 @@
         <v>891055</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>865328</v>
+        <v>865560</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>914205</v>
+        <v>914543</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7939401244832962</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.771017247593825</v>
+        <v>0.7712237006237629</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8145667876377315</v>
+        <v>0.8148682731584707</v>
       </c>
     </row>
     <row r="6">
@@ -3610,19 +3610,19 @@
         <v>66607</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>54349</v>
+        <v>54450</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>81422</v>
+        <v>83700</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06937246886327718</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05660560085975403</v>
+        <v>0.05671100252625341</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08480248718831247</v>
+        <v>0.08717484519351772</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>323</v>
@@ -3631,19 +3631,19 @@
         <v>183203</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>162443</v>
+        <v>163647</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>206867</v>
+        <v>204652</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1641827778632885</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1455782425174604</v>
+        <v>0.1466573693301602</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1853898781423274</v>
+        <v>0.1834049683956161</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>420</v>
@@ -3652,19 +3652,19 @@
         <v>249810</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>224303</v>
+        <v>226855</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>277029</v>
+        <v>277539</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1203333224386894</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1080463439558539</v>
+        <v>0.1092756239459037</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1334443041368382</v>
+        <v>0.1336899746274214</v>
       </c>
     </row>
     <row r="8">
@@ -3681,19 +3681,19 @@
         <v>893530</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>878715</v>
+        <v>876437</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>905788</v>
+        <v>905687</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9306275311367229</v>
+        <v>0.9306275311367228</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9151975128116876</v>
+        <v>0.9128251548064823</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.943394399140246</v>
+        <v>0.9432889974737466</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1284</v>
@@ -3702,19 +3702,19 @@
         <v>932646</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>908982</v>
+        <v>911197</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>953406</v>
+        <v>952202</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8358172221367114</v>
+        <v>0.8358172221367115</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8146101218576728</v>
+        <v>0.8165950316043836</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8544217574825397</v>
+        <v>0.8533426306698396</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2097</v>
@@ -3723,19 +3723,19 @@
         <v>1826176</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1798957</v>
+        <v>1798447</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1851683</v>
+        <v>1849131</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8796666775613107</v>
+        <v>0.8796666775613106</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8665556958631612</v>
+        <v>0.8663100253725788</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.891953656044146</v>
+        <v>0.8907243760540965</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>51395</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>40313</v>
+        <v>40018</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>65215</v>
+        <v>65178</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04911278442821323</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0385228273628617</v>
+        <v>0.03824067524668844</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06231841023817045</v>
+        <v>0.06228356274460611</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>209</v>
@@ -3848,19 +3848,19 @@
         <v>119701</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>103005</v>
+        <v>103791</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>136527</v>
+        <v>136439</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.114257785194668</v>
+        <v>0.1142577851946681</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09832077106391982</v>
+        <v>0.09907114798993569</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1303182533268573</v>
+        <v>0.1302348080399356</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>283</v>
@@ -3869,19 +3869,19 @@
         <v>171097</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>152098</v>
+        <v>148878</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>194131</v>
+        <v>192406</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08170336441825946</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07263116577005181</v>
+        <v>0.07109340634578003</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09270303574342345</v>
+        <v>0.0918790314030149</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>995084</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>981264</v>
+        <v>981301</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1006166</v>
+        <v>1006461</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9508872155717868</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9376815897618296</v>
+        <v>0.9377164372553936</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9614771726371382</v>
+        <v>0.9617593247533113</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1307</v>
@@ -3919,19 +3919,19 @@
         <v>927941</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>911115</v>
+        <v>911203</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>944637</v>
+        <v>943851</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8857422148053319</v>
+        <v>0.885742214805332</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8696817466731427</v>
+        <v>0.8697651919600644</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9016792289360802</v>
+        <v>0.9009288520100642</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2262</v>
@@ -3940,19 +3940,19 @@
         <v>1923024</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1899990</v>
+        <v>1901715</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1942023</v>
+        <v>1945243</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9182966355817405</v>
+        <v>0.9182966355817406</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.907296964256576</v>
+        <v>0.908120968596985</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9273688342299481</v>
+        <v>0.9289065936542198</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>55561</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>42884</v>
+        <v>43439</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>71137</v>
+        <v>70203</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05693098549566394</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04394165828266836</v>
+        <v>0.04451032725378833</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07289118498994791</v>
+        <v>0.07193467268260284</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>162</v>
@@ -4065,19 +4065,19 @@
         <v>93821</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>79762</v>
+        <v>80074</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>108440</v>
+        <v>107387</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.103060827308998</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08761722775365263</v>
+        <v>0.08796039315467021</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1191193838941372</v>
+        <v>0.1179631519982663</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>232</v>
@@ -4086,19 +4086,19 @@
         <v>149382</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>132109</v>
+        <v>130733</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>170814</v>
+        <v>169010</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07919395806783223</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0700372272384672</v>
+        <v>0.06930763029694129</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0905561083346043</v>
+        <v>0.08959987510685399</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>920368</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>904792</v>
+        <v>905726</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>933045</v>
+        <v>932490</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.943069014504336</v>
+        <v>0.9430690145043361</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.927108815010052</v>
+        <v>0.9280653273173971</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9560583417173315</v>
+        <v>0.9554896727462117</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1162</v>
@@ -4136,19 +4136,19 @@
         <v>816524</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>801905</v>
+        <v>802958</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>830583</v>
+        <v>830271</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.896939172691002</v>
+        <v>0.8969391726910021</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8808806161058629</v>
+        <v>0.8820368480017337</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9123827722463472</v>
+        <v>0.9120396068453298</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2039</v>
@@ -4157,19 +4157,19 @@
         <v>1736892</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1715460</v>
+        <v>1717264</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1754165</v>
+        <v>1755541</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9208060419321679</v>
+        <v>0.9208060419321678</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9094438916653955</v>
+        <v>0.9104001248931459</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9299627727615319</v>
+        <v>0.9306923697030586</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>245967</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>221101</v>
+        <v>218835</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>277285</v>
+        <v>274427</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07065414355983313</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06351131251349598</v>
+        <v>0.06286051114450357</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07965024989432459</v>
+        <v>0.07882915710592266</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>955</v>
@@ -4282,19 +4282,19 @@
         <v>555586</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>519302</v>
+        <v>520521</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>590329</v>
+        <v>590250</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1502634208976859</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1404499844167973</v>
+        <v>0.1407798033098419</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1596598405642624</v>
+        <v>0.1596385551786953</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1278</v>
@@ -4303,19 +4303,19 @@
         <v>801554</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>754811</v>
+        <v>757625</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>843272</v>
+        <v>844343</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1116571948498855</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.105145920397875</v>
+        <v>0.1055378811633939</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1174685615857759</v>
+        <v>0.1176178586083391</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>3235317</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3203999</v>
+        <v>3206857</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3260183</v>
+        <v>3262449</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9293458564401668</v>
+        <v>0.9293458564401669</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9203497501056757</v>
+        <v>0.9211708428940774</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9364886874865043</v>
+        <v>0.9371394888554966</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4353</v>
@@ -4353,19 +4353,19 @@
         <v>3141830</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3107087</v>
+        <v>3107166</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3178114</v>
+        <v>3176895</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8497365791023139</v>
+        <v>0.849736579102314</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8403401594357376</v>
+        <v>0.8403614448213046</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8595500155832027</v>
+        <v>0.8592201966901579</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7371</v>
@@ -4374,19 +4374,19 @@
         <v>6377147</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6335429</v>
+        <v>6334358</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6423890</v>
+        <v>6421076</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8883428051501144</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8825314384142242</v>
+        <v>0.8823821413916612</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8948540796021249</v>
+        <v>0.8944621188366062</v>
       </c>
     </row>
     <row r="18">
